--- a/biology/Botanique/Peganaceae/Peganaceae.xlsx
+++ b/biology/Botanique/Peganaceae/Peganaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Peganacées regroupe des plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend 5–7 espèces réparties en deux genres :
 Malacocarpus (war), Peganum.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Peganum, qui vient du grec πηγανος / peganos, nom grec de la rue il viendrait de πηγνυα / pignya, « j'échauffe ; je cuis » « on en connaît l'effet échauffant, le Peganum ressemble à la rue »[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Peganum, qui vient du grec πηγανος / peganos, nom grec de la rue il viendrait de πηγνυα / pignya, « j'échauffe ; je cuis » « on en connaît l'effet échauffant, le Peganum ressemble à la rue ». 
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3] cette famille n'existe pas ; ces genres sont situés dans la famille des Zygophyllacées.
-En classification phylogénétique APG (1998)[4] et classification phylogénétique APG II (2003)[5], cette famille est optionnelle ; ces plantes aussi peuvent être assignées aux Nitrariacées.
-En classification phylogénétique APG III (2009)[6] cette famille est invalide et ses genres sont incorporés dans la famille Nitrariaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas ; ces genres sont situés dans la famille des Zygophyllacées.
+En classification phylogénétique APG (1998) et classification phylogénétique APG II (2003), cette famille est optionnelle ; ces plantes aussi peuvent être assignées aux Nitrariacées.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Nitrariaceae.
 </t>
         </is>
       </c>
